--- a/biology/Écologie/Écozone_paléarctique___plantes_à_graines_par_nom_scientifique_(A)/Écozone_paléarctique___plantes_à_graines_par_nom_scientifique_(A).xlsx
+++ b/biology/Écologie/Écozone_paléarctique___plantes_à_graines_par_nom_scientifique_(A)/Écozone_paléarctique___plantes_à_graines_par_nom_scientifique_(A).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:H54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(A)</t>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(A)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(A)</t>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(A)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,8 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Abe
-Abelia - fam. Caprifoliacées
+          <t>Abe</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Abelia - fam. Caprifoliacées
 Abelia biflora - photo
 Abelia chinensis - photo
 Abelia engleriana - photo
@@ -525,9 +542,43 @@
 Abeliophyllum
 Abeliophyllum distichum - photo
 Abelmoschus - fam. Malvacées
-Abelmoschus esculentus - Gombo, Okra
-Abi
-Abies - fam. Pinacées (arbre)
+Abelmoschus esculentus - Gombo, Okra</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(A)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(A)</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Ab</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Abi</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Abies - fam. Pinacées (arbre)
 Abies alba - Sapin blanc ou Sapin pectiné
 Abies beshanzuensis
 Abies borisii-regis
@@ -562,12 +613,80 @@
 Abies squamata
 Abies veitchii
 Abies yuanbaoshanensis
-Abies ziyuanensis
-Abr
-Abrus - fam. Fabacées
-Abrus precatorius
-Abu
-Abutilon - fam. Malvacées (plante grimpante)
+Abies ziyuanensis</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(A)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(A)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Ab</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Abr</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Abrus - fam. Fabacées
+Abrus precatorius</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(A)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(A)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Ab</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Abu</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Abutilon - fam. Malvacées (plante grimpante)
 Abutilon megapotamicum - Érable de maison
 Abutilon ochsenii
 Abutilon pictum
@@ -577,65 +696,72 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(A)</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Écologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(A)</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(A)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(A)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>Ac</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Écozone paléarctique : plantes à graines par nom scientifique (AC)
 </t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(A)</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Écologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(A)</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(A)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(A)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>Ad</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ade
-Adenanthera
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Ade</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Adenanthera
 Adenocarpus - fam. Fabacées
 Adenocarpus complicatus - Adénocarpe à feuilles pliées - photo
 Adenocarpus decorticans
@@ -646,13 +772,81 @@
 Adenostyles alliariae - Adénostyle à feuilles d'alliaire
 Adenostyles alpina - Adénostyle des Alpes
 Adenostyles leucophylla - Adénostyle tomenteuse
-Adesmia
-Adi
-Adina
+Adesmia</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(A)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(A)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Ad</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Adi</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Adina
 Adina rubella
-Adina racemosa
-Ado
-Adonis - fam. Renonculacées
+Adina racemosa</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(A)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(A)</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Ad</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Ado</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Adonis - fam. Renonculacées
 Adonis aestivalis - Adonis d'été ou Adonis goutte de sang
 Adonis annua - Adonis d'automne ou Adonis goutte de sang également
 Adonis cyllenea
@@ -669,38 +863,77 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(A)</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Écologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(A)</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(A)</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(A)</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Ae</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Aec
-Aechmea - fam. Broméliacées
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Aec</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Aechmea - fam. Broméliacées
 Aechmea fasciata - Calice d'argent
-Aechmea fulgens - Ananas bois
-Aeg
-Aegilops - fam. Poacées ou Graminées
+Aechmea fulgens - Ananas bois</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(A)</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(A)</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Ae</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Aeg</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Aegilops - fam. Poacées ou Graminées
 Aegilops biuncialis
 Aegilops cylindrica
 Aegilops neglecta - Égilope négligée - Lien externe
@@ -716,9 +949,43 @@
 Aeluporus littoralis
 Aeonium - fam. Crassulacées
 Aeonium arboreum
-Aeonium haworthii
-Aer
-Aerangis - fam. Orchidacées
+Aeonium haworthii</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(A)</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(A)</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Ae</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Aer</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Aerangis - fam. Orchidacées
 Aerangis distincta
 Aerangis ellisii
 Aerangis somalensis
@@ -726,17 +993,85 @@
 Aeranthes grandiflora
 Aeridachnis - fam. Orchidacées
 Aerides - fam. Orchidacées
-Aerides japonicum -
-Aes
-Aeschynomene
+Aerides japonicum -</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(A)</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(A)</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Ae</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Aes</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Aeschynomene
 Aesculus - fam. Hippocastanacées (arbre)
 Aesculus chinensis
 Aesculus hippocastanum - Marronnier d'Inde
 Aesculus indica - Vrai marronnier d'Inde
 Aesculus turbinata
-Aesculus wilsonii
-Aet
-Aetheorhiza - fam. Astéracées
+Aesculus wilsonii</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(A)</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(A)</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Ae</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Aet</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Aetheorhiza - fam. Astéracées
 Aetheorhiza bulbosa (crepis bulbosa)
 Aethionema - fam. Brassicacées
 Aethionema arabicum
@@ -749,78 +1084,156 @@
 Aethionema saxatile - Æthionème des rochers - Lien externe
 Aethionema thomasianum
 Aethusa - fam. Apiacées
-Aethusa cynapium - Éthuse ou petite ciguë
-Aex
-Aextoxicon - (arbre)
+Aethusa cynapium - Éthuse ou petite ciguë</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(A)</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(A)</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Ae</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Aex</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aextoxicon - (arbre)
 Aextoxicon punctatum - Olvillo
 </t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(A)</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Écologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(A)</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(A)</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(A)</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
         <is>
           <t>Af</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Aff
-Affonsea
-Afz
-Afzelia - fam. Fabacées (arbre)
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Aff</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Affonsea</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(A)</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(A)</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Af</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Afz</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Afzelia - fam. Fabacées (arbre)
 Afzelia doussié
 Afzelia xylocarpa
 </t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(A)</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Écologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(A)</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(A)</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(A)</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
         <is>
           <t>Ag</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Aga
-Aganisia - fam. Orchidacées
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Aga</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Aganisia - fam. Orchidacées
 Aganisia cyanea
 Aganisia ionoptera
 Aganisia pulchella
@@ -839,16 +1252,118 @@
 Agarista populifolia - photo
 Agastache
 Agastache rugosa - photo
-Agastache rugosa Alabaster - photo
-Age
-Ageratina voir Eupatorium - Astéracées
+Agastache rugosa Alabaster - photo</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(A)</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(A)</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Ag</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Ageratina voir Eupatorium - Astéracées
 Ageratum - fam. Astéracées
 Ageratum conyzoides - Ageratum fausse conyze
-Ageratum houstonianum Ageratum du Mexique
-Agl
-Aglaonema
-Agr
-Agrimonia - fam. Rosaceae
+Ageratum houstonianum Ageratum du Mexique</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(A)</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(A)</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Ag</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Agl</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Aglaonema</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(A)</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(A)</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Ag</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Agr</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Agrimonia - fam. Rosaceae
 Agrimonia eupatoria - Aigremoine eupatoire
 Agrimonia pilosa
 Agrimonia procera
@@ -898,46 +1413,119 @@
 Agrostis tenerrima - Agrostide mince
 Agrostis tenuis - Agrostide a petite feuille
 Agrostis vinealis
-Agrostis vulgaria - Fétuque vulgaire
-Agu
-Aguilaria
+Agrostis vulgaria - Fétuque vulgaire</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(A)</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(A)</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Ag</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Agu</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aguilaria
 Aguilaria baillonii - Bois d'aigle
 </t>
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(A)</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Écologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(A)</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(A)</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(A)</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
         <is>
           <t>Ai</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ail
-Ailanthus - fam. Simaroubacées (arbre)
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Ail</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Ailanthus - fam. Simaroubacées (arbre)
 Ailanthus altissima - Ailante - photo
-Ailanthus glandulosa - Ailante glanduleux
-Air
-Aira - fam. Poacées ou Graminées (herbe)
+Ailanthus glandulosa - Ailante glanduleux</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(A)</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(A)</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Ai</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Air</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aira - fam. Poacées ou Graminées (herbe)
 Aira caryophyllea
 Aira cupaniana
 Aira elegantissima
@@ -952,37 +1540,76 @@
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(A)</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Portail:Écologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(A)</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(A)</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(A)</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
         <is>
           <t>Aj</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Aja
-Ajania
-Ajania pacifica - Chrysanthème du pacifique
-Aju
-Ajuga - fam. Lamiacées
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Aja</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Ajania
+Ajania pacifica - Chrysanthème du pacifique</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(A)</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(A)</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Aj</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Aju</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ajuga - fam. Lamiacées
 Ajuga chamaepitys - Bugle jaune - photo
 Ajuga genevensis - Bugle de Genève
 Ajuga iva
@@ -997,31 +1624,33 @@
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(A)</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Portail:Écologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(A)</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(A)</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(A)</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
         <is>
           <t>Ak</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr">
         <is>
           <t xml:space="preserve">Akebia - fam. Lardizabalacées
 Akebia quinata
@@ -1030,65 +1659,72 @@
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(A)</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Portail:Écologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(A)</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(A)</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(A)</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
         <is>
           <t>Al</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr">
         <is>
           <t xml:space="preserve">Écozone paléarctique : plantes à graines par nom scientifique (AL)
 </t>
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(A)</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Portail:Écologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(A)</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(A)</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(A)</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
         <is>
           <t>Am</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ama
-Amaranthus - fam. Amaranthacées
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Ama</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Amaranthus - fam. Amaranthacées
 Amaranthus albus - Amarante blanche
 Amaranthus blitoides
 Amaranthus caudatus - Amarante queue de renard
@@ -1105,31 +1741,201 @@
 Amaranthus standleyanus
 Amaranthus viridis
 Amaryllis - fam. Amaryllidaceae
-Amaryllis belladonna - Amaryllis belladone - L'une des amaryllis véritables
-Amb
-Ambrosia - fam. Astéracées
+Amaryllis belladonna - Amaryllis belladone - L'une des amaryllis véritables</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(A)</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(A)</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Am</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Amb</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Ambrosia - fam. Astéracées
 Ambrosia artemisiaefolia - Ambroisie à feuilles d'armoise
 Ambrosia psilostachya - Ambroisie
-Amburana
-Ame
-Amelanchier - fam. Rosacées (arbuste)
+Amburana</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(A)</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(A)</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Am</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Ame</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Amelanchier - fam. Rosacées (arbuste)
 Amelanchier asiatica
 Amelanchier ovalis - Amélanchier à feuilles ovales
 Amelanchier ovalis helvetia
 Amentotaxus
-Amentotaxus argotaenia - photo
-Amm
-Ammi - fam. Apiacées
+Amentotaxus argotaenia - photo</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(A)</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(A)</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Am</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Amm</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Ammi - fam. Apiacées
 Ammi majus
 Ammi visnaga voir Visnaga daucoides
 Ammophila - fam. Poacées ou Graminées
 Ammophila arenaria
-Ammophila brevilegulata - Ammophile à ligule courte
-Amo
-Amorphophallus - fam. Aracées
-Amorphophallus konjac - Konjac
-Amp
-Ampelodesmos
+Ammophila brevilegulata - Ammophile à ligule courte</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(A)</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(A)</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Am</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Amo</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Amorphophallus - fam. Aracées
+Amorphophallus konjac - Konjac</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(A)</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(A)</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Am</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Amp</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Ampelodesmos
 Ampelodesmos mauritanica
 Ampelopsis - (liane)
 Ampelopsis aconitifolia - photo
@@ -1140,9 +1946,43 @@
 Ampelopsis glandulosa maximowiczii
 Ampelopsis japonica
 Ampelopsis megalophylla - photo
-Ampelopsis orientalis
-Ams
-Amsinckia - fam. Boraginacées
+Ampelopsis orientalis</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(A)</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(A)</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Am</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Ams</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Amsinckia - fam. Boraginacées
 Amsinckia angustifolia
 Amsinckia calycina
 Amsinckia micrantha
@@ -1155,78 +1995,153 @@
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(A)</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Portail:Écologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(A)</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(A)</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(A)</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
         <is>
           <t>An</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr"/>
+      <c r="H37" t="inlineStr">
         <is>
           <t xml:space="preserve">Écozone paléarctique : plantes à graines par nom scientifique (AN)
 </t>
         </is>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(A)</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Portail:Écologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(A)</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(A)</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(A)</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
         <is>
           <t>Ap</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Apa
-Apatesia
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Apa</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Apatesia
 Apatesia helianthoides
 Apatesia pillansii
-Apatesia sabulosa
-Aph
-Aphanes - fam. Rosacées
+Apatesia sabulosa</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(A)</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(A)</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Ap</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Aph</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr"/>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Aphanes - fam. Rosacées
 Aphanes arvensis - Perce-pierre
 Aphanes inexspectata
 Aphelandra
 Aphelandra squarrosa - Aphelandra
 Aphyllanthus
-Aphyllanthus monspeliensis - Aphyllanthe de Montpellier
-Api
-Apios (plante grimpante)
+Aphyllanthus monspeliensis - Aphyllanthe de Montpellier</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(A)</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(A)</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Ap</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Api</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr"/>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Apios (plante grimpante)
 Apios americana - Apios d'Amérique
 Apium - fam. Apiacées ou Ombellifères (plante comestible)
 Apium graveolens ou Apium sativus - Céleri ou « Ache des marais »
@@ -1234,47 +2149,120 @@
 Apium inondatum
 Apium nodiflorum
 Apium repens - Ache rampante
-Apium sativus ou Apium graveolens - Céleri ou « Ache des marais »
-Apo
-Apocynum (plante à rhizome)
+Apium sativus ou Apium graveolens - Céleri ou « Ache des marais »</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(A)</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(A)</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Ap</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Apo</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr"/>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Apocynum (plante à rhizome)
 Apocynum androsaemifolium - Apocyn
 Apocynum floribundum - Apocyn
 Aponogeton - fam. Aponogétonacées
-Aponogeton distachyos - Aponogéton odorant
-Apu
-Apuleia
+Aponogeton distachyos - Aponogéton odorant</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(A)</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(A)</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Ap</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Apu</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr"/>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Apuleia
 </t>
         </is>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(A)</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Portail:Écologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(A)</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(A)</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(A)</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
         <is>
           <t>Aq</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Aqu
-Aquilegia - fam. Renonculacées - photo1, photo2
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Aqu</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr"/>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aquilegia - fam. Renonculacées - photo1, photo2
 Aquilegia alpina - Ancolie des Alpes - photo
 Aquilegia atrata - Ancolie noirâtre
 Aquilegia bertolonii - Ancolie de Bertoloni
@@ -1287,101 +2275,178 @@
         </is>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(A)</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Portail:Écologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(A)</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(A)</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(A)</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
         <is>
           <t>Ar</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="F44" t="inlineStr"/>
+      <c r="G44" t="inlineStr"/>
+      <c r="H44" t="inlineStr">
         <is>
           <t xml:space="preserve">Écozone paléarctique : plantes à graines par nom scientifique (AR)
 </t>
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(A)</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Portail:Écologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(A)</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(A)</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(A)</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
         <is>
           <t>As</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="F45" t="inlineStr"/>
+      <c r="G45" t="inlineStr"/>
+      <c r="H45" t="inlineStr">
         <is>
           <t xml:space="preserve">Écozone paléarctique : plantes à graines par nom scientifique (AS)
 </t>
         </is>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(A)</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>Portail:Écologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(A)</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(A)</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(A)</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
         <is>
           <t>At</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ate
-Ateleia
-Ath
-Athamanta - fam. Apiacées
-Athamanta cretensis - Athamante de Crète
-Atr
-Atractylis - (plante épineuse)
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Ate</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr"/>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Ateleia</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(A)</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(A)</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>At</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Ath</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr"/>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>Athamanta - fam. Apiacées
+Athamanta cretensis - Athamante de Crète</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(A)</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(A)</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>At</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Atr</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr"/>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Atractylis - (plante épineuse)
 Atractylis humilis - Atractyle humble
 Atractylis aristata - Ameskekki
 Atriplex - fam. Chénopodiacées (arbuste)
@@ -1416,77 +2481,185 @@
         </is>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(A)</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>Portail:Écologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(A)</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(A)</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(A)</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
         <is>
           <t>Au</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Aub
-Aubrieta - fam. Brassicacées - 'Blue Emperor', 'Cascade Purple'
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Aub</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr"/>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Aubrieta - fam. Brassicacées - 'Blue Emperor', 'Cascade Purple'
 Aubrietia argenteovariegata - photo
 Aubrietia purpurea - Aubriétia pourpre
-Aubrieta deltoidea - Aubriétia deltoïdes
-Auc
-Aucuba
+Aubrieta deltoidea - Aubriétia deltoïdes</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(A)</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(A)</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Au</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Auc</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr"/>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Aucuba
 Aucuba himalaicus
-Aucuba japonica
-Aur
-Aurinia
-Aurinia saxatilis - Aurinia saxatile - photo
-Aus
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(A)</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>Portail:Écologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(A)</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
+Aucuba japonica</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(A)</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(A)</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Au</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Aur</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr"/>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Aurinia
+Aurinia saxatilis - Aurinia saxatile - photo</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(A)</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(A)</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Au</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Aus</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr"/>
+      <c r="H52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(A)</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(A)</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
         <is>
           <t>Av</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ave
-Avena - fam. Poacées ou Graminées
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Ave</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr"/>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Avena - fam. Poacées ou Graminées
 Avena fatua - Folle avoine ou « Avoine sauvage »
 Avena sativa - Avoine cultivée
 Avena pubescens - Avoine pubescente
@@ -1497,34 +2670,39 @@
         </is>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(A)</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>Portail:Écologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(A)</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(A)</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(A)</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
         <is>
           <t>Az</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Aza
-Azara
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Aza</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr"/>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Azara
 Azara dentata
 Azara microphylla
 Azorella
